--- a/策划/相关数据值/金币相关项.xlsx
+++ b/策划/相关数据值/金币相关项.xlsx
@@ -439,7 +439,7 @@
           <c:x val="0.19562939025685372"/>
           <c:y val="3.0104257801108196E-2"/>
           <c:w val="0.88780797561595137"/>
-          <c:h val="0.64822506561679893"/>
+          <c:h val="0.64822506561679905"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -471,116 +471,116 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640</c:v>
+                  <c:v>1792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>820</c:v>
+                  <c:v>2356</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1180</c:v>
+                  <c:v>3239</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1360</c:v>
+                  <c:v>4508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1540</c:v>
+                  <c:v>5777</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1720</c:v>
+                  <c:v>7046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1900</c:v>
+                  <c:v>8315</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2080</c:v>
+                  <c:v>1584</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2260</c:v>
+                  <c:v>3840</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>365</c:v>
+                  <c:v>6096</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>470</c:v>
+                  <c:v>8352</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>875</c:v>
+                  <c:v>10608</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1280</c:v>
+                  <c:v>12864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1685</c:v>
+                  <c:v>15120</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2090</c:v>
+                  <c:v>2376</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>390</c:v>
+                  <c:v>5901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>690</c:v>
+                  <c:v>9426</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1410</c:v>
+                  <c:v>12951</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2130</c:v>
+                  <c:v>16476</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2850</c:v>
+                  <c:v>20001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3435</c:v>
+                  <c:v>23526</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4560</c:v>
+                  <c:v>27051</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5685</c:v>
+                  <c:v>30576</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6810</c:v>
+                  <c:v>34101</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7935</c:v>
+                  <c:v>37626</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9060</c:v>
+                  <c:v>41151</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10185</c:v>
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="116027392"/>
-        <c:axId val="116029312"/>
+        <c:axId val="97672576"/>
+        <c:axId val="114971776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116027392"/>
+        <c:axId val="97672576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116029312"/>
+        <c:crossAx val="114971776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116029312"/>
+        <c:axId val="114971776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +588,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116027392"/>
+        <c:crossAx val="97672576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,10 +599,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33509899010967997"/>
-          <c:y val="0.82480788859725873"/>
+          <c:x val="0.33509899010968008"/>
+          <c:y val="0.82480788859725862"/>
           <c:w val="0.56020858319862332"/>
-          <c:h val="8.3717191601049998E-2"/>
+          <c:h val="8.3717191601050012E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -610,7 +610,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -626,7 +626,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.23635411198600176"/>
-          <c:y val="2.7777777777777811E-2"/>
+          <c:y val="2.7777777777777821E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -639,7 +639,7 @@
           <c:x val="0.14542260438304108"/>
           <c:y val="0.20325240594925634"/>
           <c:w val="0.80931162745761076"/>
-          <c:h val="0.66952136191309453"/>
+          <c:h val="0.66952136191309464"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -668,119 +668,119 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>240</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>240</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>240</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>240</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>240</c:v>
+                  <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240</c:v>
+                  <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240</c:v>
+                  <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>540</c:v>
+                  <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>540</c:v>
+                  <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>540</c:v>
+                  <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>540</c:v>
+                  <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>540</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>540</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>960</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>960</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>960</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>960</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="117708672"/>
-        <c:axId val="117723520"/>
+        <c:axId val="114988160"/>
+        <c:axId val="114989696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117708672"/>
+        <c:axId val="114988160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117723520"/>
+        <c:crossAx val="114989696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117723520"/>
+        <c:axId val="114989696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +788,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117708672"/>
+        <c:crossAx val="114988160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -799,9 +799,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57836529636249501"/>
-          <c:y val="0.71350503062117299"/>
-          <c:w val="0.34560327198364044"/>
+          <c:x val="0.57836529636249512"/>
+          <c:y val="0.71350503062117321"/>
+          <c:w val="0.34560327198364055"/>
           <c:h val="0.13965660542432196"/>
         </c:manualLayout>
       </c:layout>
@@ -810,7 +810,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1605,7 +1605,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1644,13 +1644,14 @@
       </c>
       <c r="C2" s="5">
         <f>ROUND(D2+E2,0)</f>
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="D2" s="5">
-        <v>240</v>
+        <v>840</v>
       </c>
       <c r="E2" s="5">
-        <v>-60</v>
+        <f>-69*4</f>
+        <v>-276</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1659,17 +1660,18 @@
       </c>
       <c r="B3" s="5">
         <f>ROUND(B2+C2,0)</f>
-        <v>280</v>
+        <v>664</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:C31" si="0">ROUND(D3+E3,0)</f>
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="D3" s="5">
-        <v>240</v>
+        <v>840</v>
       </c>
       <c r="E3" s="5">
-        <v>-60</v>
+        <f t="shared" ref="E3:E13" si="1">-69*4</f>
+        <v>-276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1677,18 +1679,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" ref="B4:B32" si="1">ROUND(B3+C3,0)</f>
-        <v>460</v>
+        <f t="shared" ref="B4:B32" si="2">ROUND(B3+C3,0)</f>
+        <v>1228</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="D4" s="5">
-        <v>240</v>
+        <v>840</v>
       </c>
       <c r="E4" s="5">
-        <v>-60</v>
+        <f t="shared" si="1"/>
+        <v>-276</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1696,18 +1699,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" si="1"/>
-        <v>640</v>
+        <f t="shared" si="2"/>
+        <v>1792</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="D5" s="5">
-        <v>240</v>
+        <v>840</v>
       </c>
       <c r="E5" s="5">
-        <v>-60</v>
+        <f t="shared" si="1"/>
+        <v>-276</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1715,18 +1719,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" si="1"/>
-        <v>820</v>
+        <f t="shared" si="2"/>
+        <v>2356</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>-386</v>
       </c>
       <c r="D6" s="5">
-        <v>240</v>
+        <f>9*210</f>
+        <v>1890</v>
       </c>
       <c r="E6" s="5">
-        <v>-60</v>
+        <f>-69*4-2000</f>
+        <v>-2276</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1734,18 +1740,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1970</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>1269</v>
       </c>
       <c r="D7" s="5">
-        <v>240</v>
+        <f t="shared" ref="D7:D32" si="3">9*210</f>
+        <v>1890</v>
       </c>
       <c r="E7" s="5">
-        <v>-60</v>
+        <f>-69*9</f>
+        <v>-621</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1753,18 +1761,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f t="shared" si="1"/>
-        <v>1180</v>
+        <f t="shared" si="2"/>
+        <v>3239</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>1269</v>
       </c>
       <c r="D8" s="5">
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>1890</v>
       </c>
       <c r="E8" s="5">
-        <v>-60</v>
+        <f t="shared" ref="E8:E13" si="4">-69*9</f>
+        <v>-621</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1772,18 +1782,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <f t="shared" si="1"/>
-        <v>1360</v>
+        <f t="shared" si="2"/>
+        <v>4508</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>1269</v>
       </c>
       <c r="D9" s="5">
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>1890</v>
       </c>
       <c r="E9" s="5">
-        <v>-60</v>
+        <f t="shared" si="4"/>
+        <v>-621</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1791,18 +1803,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" si="1"/>
-        <v>1540</v>
+        <f t="shared" si="2"/>
+        <v>5777</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>1269</v>
       </c>
       <c r="D10" s="5">
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>1890</v>
       </c>
       <c r="E10" s="5">
-        <v>-60</v>
+        <f t="shared" si="4"/>
+        <v>-621</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1810,18 +1824,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" si="1"/>
-        <v>1720</v>
+        <f t="shared" si="2"/>
+        <v>7046</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>1269</v>
       </c>
       <c r="D11" s="5">
-        <v>240</v>
+        <f>9*210</f>
+        <v>1890</v>
       </c>
       <c r="E11" s="5">
-        <v>-60</v>
+        <f t="shared" si="4"/>
+        <v>-621</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1829,18 +1845,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" si="1"/>
-        <v>1900</v>
+        <f t="shared" si="2"/>
+        <v>8315</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>-6731</v>
       </c>
       <c r="D12" s="5">
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>1890</v>
       </c>
       <c r="E12" s="5">
-        <v>-60</v>
+        <f>-69*9-8000</f>
+        <v>-8621</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1848,18 +1866,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" si="1"/>
-        <v>2080</v>
+        <f t="shared" si="2"/>
+        <v>1584</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>2256</v>
       </c>
       <c r="D13" s="5">
-        <v>240</v>
+        <f>16*210</f>
+        <v>3360</v>
       </c>
       <c r="E13" s="5">
-        <v>-60</v>
+        <f>-69*16</f>
+        <v>-1104</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1867,19 +1887,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <f t="shared" si="1"/>
-        <v>2260</v>
+        <f t="shared" si="2"/>
+        <v>3840</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>-1895</v>
+        <v>2256</v>
       </c>
       <c r="D14" s="5">
-        <v>240</v>
+        <f t="shared" ref="D14:D32" si="5">16*210</f>
+        <v>3360</v>
       </c>
       <c r="E14" s="5">
-        <f>-9*15-2000</f>
-        <v>-2135</v>
+        <f t="shared" ref="E14:E32" si="6">-69*16</f>
+        <v>-1104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1887,19 +1908,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" si="1"/>
-        <v>365</v>
+        <f t="shared" si="2"/>
+        <v>6096</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>2256</v>
       </c>
       <c r="D15" s="5">
-        <v>240</v>
+        <f t="shared" si="5"/>
+        <v>3360</v>
       </c>
       <c r="E15" s="5">
-        <f>-9*15</f>
-        <v>-135</v>
+        <f t="shared" si="6"/>
+        <v>-1104</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1908,19 +1930,19 @@
       </c>
       <c r="B16" s="5">
         <f>ROUND(B15+C15,0)</f>
-        <v>470</v>
+        <v>8352</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>2256</v>
       </c>
       <c r="D16" s="5">
-        <f>60*9</f>
-        <v>540</v>
+        <f t="shared" si="5"/>
+        <v>3360</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16:E19" si="2">-9*15</f>
-        <v>-135</v>
+        <f t="shared" si="6"/>
+        <v>-1104</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1928,20 +1950,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <f t="shared" si="1"/>
-        <v>875</v>
+        <f t="shared" si="2"/>
+        <v>10608</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>2256</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ref="D17:D21" si="3">60*9</f>
-        <v>540</v>
+        <f t="shared" si="5"/>
+        <v>3360</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="2"/>
-        <v>-135</v>
+        <f t="shared" si="6"/>
+        <v>-1104</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1949,20 +1971,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <f t="shared" si="1"/>
-        <v>1280</v>
+        <f t="shared" si="2"/>
+        <v>12864</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>2256</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="3"/>
-        <v>540</v>
+        <f t="shared" si="5"/>
+        <v>3360</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="2"/>
-        <v>-135</v>
+        <f t="shared" si="6"/>
+        <v>-1104</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1970,20 +1992,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" si="1"/>
-        <v>1685</v>
+        <f t="shared" si="2"/>
+        <v>15120</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>-12744</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="3"/>
-        <v>540</v>
+        <f t="shared" si="5"/>
+        <v>3360</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="2"/>
-        <v>-135</v>
+        <f>-69*16-15000</f>
+        <v>-16104</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1991,20 +2013,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" si="1"/>
-        <v>2090</v>
+        <f t="shared" si="2"/>
+        <v>2376</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>-1700</v>
+        <v>3525</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="3"/>
-        <v>540</v>
+        <f>25*210</f>
+        <v>5250</v>
       </c>
       <c r="E20" s="5">
-        <f>-16*15-2000</f>
-        <v>-2240</v>
+        <f>-69*25</f>
+        <v>-1725</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2012,20 +2034,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" si="1"/>
-        <v>390</v>
+        <f t="shared" si="2"/>
+        <v>5901</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>3525</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="3"/>
-        <v>540</v>
+        <f t="shared" ref="D21:D32" si="7">25*210</f>
+        <v>5250</v>
       </c>
       <c r="E21" s="5">
-        <f>-16*15</f>
-        <v>-240</v>
+        <f t="shared" ref="E21:E32" si="8">-69*25</f>
+        <v>-1725</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2033,20 +2055,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" si="1"/>
-        <v>690</v>
+        <f t="shared" si="2"/>
+        <v>9426</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>3525</v>
       </c>
       <c r="D22" s="5">
-        <f>60*16</f>
-        <v>960</v>
+        <f t="shared" si="7"/>
+        <v>5250</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" ref="E22:E24" si="4">-16*15</f>
-        <v>-240</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2054,20 +2076,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="1"/>
-        <v>1410</v>
+        <f t="shared" si="2"/>
+        <v>12951</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>3525</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" ref="D23:D25" si="5">60*16</f>
-        <v>960</v>
+        <f t="shared" si="7"/>
+        <v>5250</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="4"/>
-        <v>-240</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2075,20 +2097,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="1"/>
-        <v>2130</v>
+        <f t="shared" si="2"/>
+        <v>16476</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>3525</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="5"/>
-        <v>960</v>
+        <f t="shared" si="7"/>
+        <v>5250</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="4"/>
-        <v>-240</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2096,20 +2118,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" si="1"/>
-        <v>2850</v>
+        <f t="shared" si="2"/>
+        <v>20001</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>585</v>
+        <v>3525</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="5"/>
-        <v>960</v>
+        <f t="shared" si="7"/>
+        <v>5250</v>
       </c>
       <c r="E25" s="5">
-        <f>-25*15</f>
-        <v>-375</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2117,20 +2139,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" si="1"/>
-        <v>3435</v>
+        <f t="shared" si="2"/>
+        <v>23526</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>3525</v>
       </c>
       <c r="D26" s="5">
-        <f>60*25</f>
-        <v>1500</v>
+        <f t="shared" si="7"/>
+        <v>5250</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" ref="E26:E32" si="6">-25*15</f>
-        <v>-375</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2138,20 +2160,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <f t="shared" si="1"/>
-        <v>4560</v>
+        <f t="shared" si="2"/>
+        <v>27051</v>
       </c>
       <c r="C27" s="5">
         <f>ROUND(D27+E32,0)</f>
-        <v>1125</v>
+        <v>3525</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D32" si="7">60*25</f>
-        <v>1500</v>
+        <f t="shared" si="7"/>
+        <v>5250</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="6"/>
-        <v>-375</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2159,20 +2181,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <f t="shared" si="1"/>
-        <v>5685</v>
+        <f t="shared" si="2"/>
+        <v>30576</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>3525</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>5250</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="6"/>
-        <v>-375</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2180,20 +2202,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <f t="shared" si="1"/>
-        <v>6810</v>
+        <f t="shared" si="2"/>
+        <v>34101</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>3525</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>5250</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="6"/>
-        <v>-375</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2201,20 +2223,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <f t="shared" si="1"/>
-        <v>7935</v>
+        <f t="shared" si="2"/>
+        <v>37626</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>3525</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>5250</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="6"/>
-        <v>-375</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2222,20 +2244,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <f t="shared" si="1"/>
-        <v>9060</v>
+        <f t="shared" si="2"/>
+        <v>41151</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>3525</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>5250</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="6"/>
-        <v>-375</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2243,20 +2265,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="5">
-        <f t="shared" si="1"/>
-        <v>10185</v>
+        <f t="shared" si="2"/>
+        <v>44676</v>
       </c>
       <c r="C32" s="5">
         <f>ROUND(D32+E32,0)</f>
-        <v>1125</v>
+        <v>3525</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>5250</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="6"/>
-        <v>-375</v>
+        <f t="shared" si="8"/>
+        <v>-1725</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2297,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2374,7 +2396,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2404,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2415,7 +2437,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2426,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2463,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2464,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="12">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" thickBot="1">
@@ -2480,7 +2502,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="12">
-        <v>2000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" thickBot="1">
@@ -2488,7 +2510,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="12">
-        <v>2000</v>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2527,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2573,7 +2595,9 @@
         <v>28</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="51">
